--- a/HW1/graphs.xlsx
+++ b/HW1/graphs.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Users\Nayra\Projects\ECGR4181\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{BBA131CA-76C5-4FEB-9886-D170EB606263}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F790E8-0C64-4457-8DD0-CDA9F5D137D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12360" xr2:uid="{A2F0302C-147D-4C7A-A10E-E05D602DEB97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{A2F0302C-147D-4C7A-A10E-E05D602DEB97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Misses</t>
   </si>
@@ -73,6 +76,30 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>8B Direct</t>
+  </si>
+  <si>
+    <t>8B 4-Way</t>
+  </si>
+  <si>
+    <t>32B Direct</t>
+  </si>
+  <si>
+    <t>128B Direct</t>
+  </si>
+  <si>
+    <t>32B 4-Way</t>
+  </si>
+  <si>
+    <t>128B 4-Way</t>
+  </si>
+  <si>
+    <t>Unified</t>
+  </si>
+  <si>
+    <t>Split</t>
   </si>
 </sst>
 </file>
@@ -1066,6 +1093,2459 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-44BF-469E-A06F-E5BBBE02E265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="324932848"/>
+        <c:axId val="324935800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="324932848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324935800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324935800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cache Misses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324932848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unified</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Split Cache</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unified</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8B Direct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32B Direct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128B Direct</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128B 4-Way</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-329F-44D2-8C3E-F2217950DEED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Split</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8B Direct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32B Direct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128B Direct</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128B 4-Way</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-329F-44D2-8C3E-F2217950DEED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="490301664"/>
+        <c:axId val="490298712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="490301664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490298712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="490298712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cache</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> MIsses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490301664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unified</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Split Cache</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unified</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8B Direct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32B Direct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128B Direct</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128B 4-Way</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1116-4A30-ABB6-F4D45035ADBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Split</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8B Direct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32B Direct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128B Direct</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128B 4-Way</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1116-4A30-ABB6-F4D45035ADBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="490301664"/>
+        <c:axId val="490298712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="490301664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490298712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="490298712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cache</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> MIsses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490301664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unified Cache</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Metrics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Unified 8B Direct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Unified 8B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unified 32B Direct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Unified 128B Direct</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified 32B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Unified 128B 4-Way</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C3E-422F-B7F8-A83873596181}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="447191240"/>
+        <c:axId val="447191568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="447191240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447191568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447191568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cache Misses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447191240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Split Cache</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ins Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Split 8B Direct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Split 8B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Split 128B Direct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Split 32B Direct</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Split 32B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Split 128B 4-Way</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5DE-43CF-8414-4FEEC82AAAB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Split 8B Direct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Split 8B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Split 128B Direct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Split 32B Direct</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Split 32B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Split 128B 4-Way</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5DE-43CF-8414-4FEEC82AAAB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Split 8B Direct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Split 8B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Split 128B Direct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Split 32B Direct</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Split 32B 4-Way</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Split 128B 4-Way</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E5DE-43CF-8414-4FEEC82AAAB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1408,6 +3888,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2414,20 +5054,2032 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2454,16 +7106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2483,6 +7135,171 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB26BA07-4912-4241-BC48-D4B5BBD281CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF73C682-A339-4114-BA88-2ECE7387A9EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A451A677-D0B3-40F3-B393-8AC631A245D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA24D82C-CA52-412F-AEB6-D155ABE31CA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2788,10 +7605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8E0C5D-3B71-4827-B807-1EC38266B154}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,7 +7693,7 @@
         <v>5872</v>
       </c>
       <c r="D10">
-        <f>B10 + C10</f>
+        <f>$B10 + $C10</f>
         <v>5959</v>
       </c>
     </row>
@@ -2891,7 +7708,7 @@
         <v>4842</v>
       </c>
       <c r="D11">
-        <f>B11 + C11</f>
+        <f t="shared" ref="D11:D15" si="0">$B11 + $C11</f>
         <v>4929</v>
       </c>
     </row>
@@ -2906,7 +7723,7 @@
         <v>1911</v>
       </c>
       <c r="D12">
-        <f>B12 + C12</f>
+        <f t="shared" si="0"/>
         <v>1924</v>
       </c>
     </row>
@@ -2921,7 +7738,7 @@
         <v>1878</v>
       </c>
       <c r="D13">
-        <f>B13 + C13</f>
+        <f t="shared" si="0"/>
         <v>1907</v>
       </c>
     </row>
@@ -2936,7 +7753,7 @@
         <v>337</v>
       </c>
       <c r="D14">
-        <f>B14 + C14</f>
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
     </row>
@@ -2951,7 +7768,81 @@
         <v>337</v>
       </c>
       <c r="D15">
-        <f>B15 + C15</f>
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>6110</v>
+      </c>
+      <c r="C18">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>4852</v>
+      </c>
+      <c r="C19">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1956</v>
+      </c>
+      <c r="C20">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1469</v>
+      </c>
+      <c r="C21">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1228</v>
+      </c>
+      <c r="C22">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>318</v>
+      </c>
+      <c r="C23">
         <v>350</v>
       </c>
     </row>
@@ -2962,4 +7853,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55D4B79-A7DA-446A-A3F3-2687D695AED5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A05547-D5DB-4F4B-8CF1-8BF90241EBF5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4838554-0EDA-49BB-9601-1B4AE7A8FA2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>